--- a/lv side trunk.xlsx
+++ b/lv side trunk.xlsx
@@ -486,17 +486,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Korean、Hong Kong、France</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
           <t>NT$137,000</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>¥599,500</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -528,17 +523,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Hong Kong、France</t>
+          <t>Taiwan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
           <t>NT$129,000</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>¥566,500</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
@@ -565,17 +555,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Korean、Hong Kong、France</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>NT$153,000</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>¥676,500</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -607,17 +592,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Korean、Hong Kong、France</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
           <t>NT$131,000</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>¥577,500</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -681,17 +661,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Korean、Hong Kong、France</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
           <t>NT$117,000</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>¥511,500</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -723,17 +698,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Korean、Hong Kong、France</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
           <t>NT$125,000</t>
-        </is>
-      </c>
-      <c r="E8" s="1" t="inlineStr">
-        <is>
-          <t>¥545,600</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -765,17 +735,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Taiwan、Japan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Korean、Hong Kong、France</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
           <t>NT$145,000</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>¥638,000</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
@@ -935,66 +900,56 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M47202</t>
+          <t>M25071</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>サイドトランク MM</t>
+          <t>사이드 트렁크 PM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Japan、Korean、France</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>¥654,500</t>
+          <t>Korean</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>₩5,970,000</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>3 700,00€</t>
+          <t>₩5,160,000</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M25216</t>
+          <t>M47202</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>サイドトランク PM</t>
+          <t>사이드 트렁크 MM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Japan、Korean</t>
-        </is>
-      </c>
-      <c r="E15" s="1" t="inlineStr">
-        <is>
-          <t>¥649,000</t>
+          <t>Korean、France</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
           <t>₩5,970,000</t>
+        </is>
+      </c>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>3 700,00€</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M25071</t>
+          <t>M25216</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1009,7 +964,7 @@
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>₩5,160,000</t>
+          <t>₩5,970,000</t>
         </is>
       </c>
     </row>
@@ -1082,65 +1037,56 @@
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H5" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H6" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H7" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H8" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H9" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H10" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H11" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H13" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H14" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H5" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H6" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H7" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H8" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H9" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H10" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H11" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H13" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H15" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/lv side trunk.xlsx
+++ b/lv side trunk.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M25160</t>
+          <t>M46358</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,103 +486,108 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>NT$137,000</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>₩5,480,000</t>
+          <t>NT$125,000</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>¥545,600</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>HK$ 33,500</t>
+          <t>HK$ 31,500</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>3 400,00€</t>
+          <t>3 100,00€</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M23817</t>
+          <t>M47085</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Side Trunk PM</t>
+          <t>Side Trunk MM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Taiwan、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>NT$129,000</t>
+          <t>NT$145,000</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>¥638,000</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>HK$ 31,500</t>
+          <t>HK$ 35,500</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>3 200,00€</t>
+          <t>3 600,00€</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>M24403</t>
+          <t>M46815</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Side Trunk MM</t>
+          <t>Side Trunk PM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>NT$153,000</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>₩6,130,000</t>
+          <t>NT$117,000</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>¥511,500</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>HK$ 37,500</t>
+          <t>HK$ 29,500</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>3 800,00€</t>
+          <t>2 900,00€</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>M46907</t>
+          <t>M25160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -592,34 +597,34 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>NT$131,000</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>₩5,240,000</t>
+          <t>NT$137,000</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>¥599,500</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>HK$ 32,000</t>
+          <t>HK$ 33,500</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>3 250,00€</t>
+          <t>3 400,00€</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M83030</t>
+          <t>M23817</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -629,66 +634,71 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Taiwan、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>NT$149,000</t>
+          <t>NT$129,000</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>¥566,500</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>HK$ 36,500</t>
+          <t>HK$ 31,500</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>3 700,00€</t>
+          <t>3 200,00€</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M46815</t>
+          <t>M24403</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Side Trunk PM</t>
+          <t>Side Trunk MM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>NT$117,000</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>₩4,680,000</t>
+          <t>NT$153,000</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>¥676,500</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>HK$ 29,500</t>
+          <t>HK$ 37,500</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>2 900,00€</t>
+          <t>3 800,00€</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M46358</t>
+          <t>M46907</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -698,64 +708,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Japan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>NT$125,000</t>
-        </is>
-      </c>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>₩5,000,000</t>
+          <t>NT$131,000</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>¥577,500</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>HK$ 31,500</t>
+          <t>HK$ 32,000</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>3 100,00€</t>
+          <t>3 250,00€</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>M47085</t>
+          <t>M83030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Side Trunk MM</t>
+          <t>Side Trunk PM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>NT$145,000</t>
-        </is>
-      </c>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>₩5,810,000</t>
+          <t>NT$149,000</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>HK$ 35,500</t>
+          <t>HK$ 36,500</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>3 600,00€</t>
+          <t>3 700,00€</t>
         </is>
       </c>
     </row>
@@ -772,17 +777,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
           <t>NT$145,000</t>
-        </is>
-      </c>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>₩5,810,000</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
@@ -809,17 +809,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
           <t>NT$229,000</t>
-        </is>
-      </c>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>₩9,190,000</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
@@ -873,17 +868,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Taiwan、Korean、Hong Kong、France</t>
+          <t>Taiwan、Hong Kong、France</t>
         </is>
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
           <t>NT$109,000</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>₩4,350,000</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
@@ -900,193 +890,99 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>M25071</t>
+          <t>M47202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>사이드 트렁크 PM</t>
+          <t>サイドトランク MM</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>₩5,160,000</t>
+          <t>Japan、France</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>¥654,500</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>3 700,00€</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>M47202</t>
+          <t>M25216</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>사이드 트렁크 MM</t>
+          <t>サイドトランク PM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Korean、France</t>
-        </is>
-      </c>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>₩5,970,000</t>
-        </is>
-      </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>3 700,00€</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>M25216</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>사이드 트렁크 PM</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>₩5,970,000</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>N84208</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>사이드 트렁크</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>₩11,800,000</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>M23815</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>사이드 트렁크 MM</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>₩5,530,000</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>N83000</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>사이드 트렁크</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Korean</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>₩34,500,000</t>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr">
+        <is>
+          <t>¥649,000</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId2"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" r:id="rId3"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" r:id="rId4"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H5" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H6" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H7" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H8" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H9" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H5" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H6" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H7" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H8" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H9" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId32"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" r:id="rId33"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H10" r:id="rId34"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H11" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H13" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H15" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H11" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H13" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H14" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E15" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
